--- a/dev/Statistica Descrittiva/Dipendenti.xlsx
+++ b/dev/Statistica Descrittiva/Dipendenti.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portable\repo\edu\dev\Statistica Descrittiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FA91F4-9E61-4B42-B882-1E0F08FB785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BA0D21-39B0-4038-84BD-97BFA9778A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F95361FA-FAB7-4337-8569-C0387980A2BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio2" sheetId="1" r:id="rId1"/>
+    <sheet name="Straordinario" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,18 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Ore Straordinario</t>
+    <t xml:space="preserve"> STRAORDINARIO</t>
   </si>
   <si>
-    <t>N. Componenti</t>
+    <t xml:space="preserve"> COMPONENTI </t>
   </si>
   <si>
-    <t>Posizione</t>
+    <t xml:space="preserve"> POSIZIONE </t>
   </si>
   <si>
-    <t>Genere</t>
+    <t xml:space="preserve">GENERE </t>
+  </si>
+  <si>
+    <t>CODICE</t>
   </si>
 </sst>
 </file>
@@ -395,20 +398,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F018A-05B9-4D0B-86B7-CD259795F271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC203CB-C15F-4033-8A80-D42F6AA4176C}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
